--- a/DNS/продажи.xlsx
+++ b/DNS/продажи.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="25080" windowHeight="9780" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1346,10 +1346,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1682,53 +1682,53 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
@@ -33321,8 +33321,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L1410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
-      <selection activeCell="E1112" sqref="E1112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33351,7 +33351,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -33389,7 +33389,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>163</v>
       </c>
       <c r="C3" t="s">
@@ -33427,7 +33427,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>295</v>
       </c>
       <c r="C4" t="s">
@@ -33465,7 +33465,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>396</v>
       </c>
       <c r="C5" t="s">
@@ -33503,7 +33503,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>765</v>
       </c>
       <c r="C6" t="s">
@@ -33541,7 +33541,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>425</v>
       </c>
       <c r="C7" t="s">
@@ -33845,7 +33845,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>445</v>
       </c>
       <c r="C15" t="s">
@@ -33883,7 +33883,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>547</v>
       </c>
       <c r="C16" t="s">
@@ -33921,7 +33921,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>890</v>
       </c>
       <c r="C17" t="s">
@@ -33959,7 +33959,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>631</v>
       </c>
       <c r="C18" t="s">
@@ -33997,7 +33997,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
         <v>445</v>
       </c>
       <c r="C19" t="s">
@@ -34035,7 +34035,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
         <v>516</v>
       </c>
       <c r="C20" t="s">
@@ -34073,7 +34073,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
         <v>433</v>
       </c>
       <c r="C21" t="s">
@@ -44009,7 +44009,7 @@
       <c r="G282" t="s">
         <v>355</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="12">
         <v>825</v>
       </c>
       <c r="I282" t="s">
@@ -44047,7 +44047,7 @@
       <c r="G283" t="s">
         <v>356</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="12">
         <v>490</v>
       </c>
       <c r="I283" t="s">
@@ -44085,7 +44085,7 @@
       <c r="G284" t="s">
         <v>357</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="12">
         <v>672</v>
       </c>
       <c r="I284" t="s">
@@ -44123,7 +44123,7 @@
       <c r="G285" t="s">
         <v>358</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="12">
         <v>539</v>
       </c>
       <c r="I285" t="s">
@@ -44161,7 +44161,7 @@
       <c r="G286" t="s">
         <v>359</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="12">
         <v>510</v>
       </c>
       <c r="I286" t="s">
@@ -44199,7 +44199,7 @@
       <c r="G287" t="s">
         <v>360</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="12">
         <v>898</v>
       </c>
       <c r="I287" t="s">
@@ -44237,7 +44237,7 @@
       <c r="G288" t="s">
         <v>361</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="12">
         <v>567</v>
       </c>
       <c r="I288" t="s">
@@ -60297,7 +60297,7 @@
       <c r="A1055" t="s">
         <v>327</v>
       </c>
-      <c r="B1055" s="13">
+      <c r="B1055" s="12">
         <v>433</v>
       </c>
       <c r="C1055" t="s">
@@ -60317,7 +60317,7 @@
       <c r="A1056" t="s">
         <v>328</v>
       </c>
-      <c r="B1056" s="13">
+      <c r="B1056" s="12">
         <v>372</v>
       </c>
       <c r="C1056" t="s">
@@ -60337,7 +60337,7 @@
       <c r="A1057" t="s">
         <v>329</v>
       </c>
-      <c r="B1057" s="13">
+      <c r="B1057" s="12">
         <v>391</v>
       </c>
       <c r="C1057" t="s">
@@ -60357,7 +60357,7 @@
       <c r="A1058" t="s">
         <v>330</v>
       </c>
-      <c r="B1058" s="13">
+      <c r="B1058" s="12">
         <v>455</v>
       </c>
       <c r="C1058" t="s">
@@ -60377,7 +60377,7 @@
       <c r="A1059" t="s">
         <v>331</v>
       </c>
-      <c r="B1059" s="13">
+      <c r="B1059" s="12">
         <v>459</v>
       </c>
       <c r="C1059" t="s">
@@ -60397,7 +60397,7 @@
       <c r="A1060" t="s">
         <v>332</v>
       </c>
-      <c r="B1060" s="13">
+      <c r="B1060" s="12">
         <v>812</v>
       </c>
       <c r="C1060" t="s">
@@ -60417,7 +60417,7 @@
       <c r="A1061" t="s">
         <v>333</v>
       </c>
-      <c r="B1061" s="13">
+      <c r="B1061" s="12">
         <v>448</v>
       </c>
       <c r="C1061" t="s">
@@ -60577,7 +60577,7 @@
       <c r="A1069" t="s">
         <v>341</v>
       </c>
-      <c r="B1069" s="13">
+      <c r="B1069" s="12">
         <v>472</v>
       </c>
       <c r="C1069" t="s">
@@ -60597,7 +60597,7 @@
       <c r="A1070" t="s">
         <v>342</v>
       </c>
-      <c r="B1070" s="13">
+      <c r="B1070" s="12">
         <v>318</v>
       </c>
       <c r="C1070" t="s">
@@ -60617,7 +60617,7 @@
       <c r="A1071" t="s">
         <v>343</v>
       </c>
-      <c r="B1071" s="13">
+      <c r="B1071" s="12">
         <v>320</v>
       </c>
       <c r="C1071" t="s">
@@ -60637,7 +60637,7 @@
       <c r="A1072" t="s">
         <v>344</v>
       </c>
-      <c r="B1072" s="13">
+      <c r="B1072" s="12">
         <v>430</v>
       </c>
       <c r="C1072" t="s">
@@ -60657,7 +60657,7 @@
       <c r="A1073" t="s">
         <v>345</v>
       </c>
-      <c r="B1073" s="13">
+      <c r="B1073" s="12">
         <v>507</v>
       </c>
       <c r="C1073" t="s">
@@ -60677,7 +60677,7 @@
       <c r="A1074" t="s">
         <v>346</v>
       </c>
-      <c r="B1074" s="13">
+      <c r="B1074" s="12">
         <v>648</v>
       </c>
       <c r="C1074" t="s">
@@ -60697,7 +60697,7 @@
       <c r="A1075" t="s">
         <v>347</v>
       </c>
-      <c r="B1075" s="13">
+      <c r="B1075" s="12">
         <v>581</v>
       </c>
       <c r="C1075" t="s">
@@ -61137,7 +61137,7 @@
       <c r="A1097" t="s">
         <v>4</v>
       </c>
-      <c r="B1097" s="13">
+      <c r="B1097" s="12">
         <v>433</v>
       </c>
       <c r="C1097" t="s">
@@ -61157,7 +61157,7 @@
       <c r="A1098" t="s">
         <v>5</v>
       </c>
-      <c r="B1098" s="13">
+      <c r="B1098" s="12">
         <v>444</v>
       </c>
       <c r="C1098" t="s">
@@ -61177,7 +61177,7 @@
       <c r="A1099" t="s">
         <v>6</v>
       </c>
-      <c r="B1099" s="13">
+      <c r="B1099" s="12">
         <v>521</v>
       </c>
       <c r="C1099" t="s">
@@ -61197,7 +61197,7 @@
       <c r="A1100" t="s">
         <v>7</v>
       </c>
-      <c r="B1100" s="13">
+      <c r="B1100" s="12">
         <v>348</v>
       </c>
       <c r="C1100" t="s">
@@ -61217,7 +61217,7 @@
       <c r="A1101" t="s">
         <v>8</v>
       </c>
-      <c r="B1101" s="13">
+      <c r="B1101" s="12">
         <v>484</v>
       </c>
       <c r="C1101" t="s">
@@ -61237,7 +61237,7 @@
       <c r="A1102" t="s">
         <v>9</v>
       </c>
-      <c r="B1102" s="13">
+      <c r="B1102" s="12">
         <v>596</v>
       </c>
       <c r="C1102" t="s">
@@ -61257,7 +61257,7 @@
       <c r="A1103" t="s">
         <v>11</v>
       </c>
-      <c r="B1103" s="13">
+      <c r="B1103" s="12">
         <v>420</v>
       </c>
       <c r="C1103" t="s">
@@ -61417,7 +61417,7 @@
       <c r="A1111" t="s">
         <v>19</v>
       </c>
-      <c r="B1111" s="13">
+      <c r="B1111" s="12">
         <v>642</v>
       </c>
       <c r="C1111" t="s">
@@ -61437,7 +61437,7 @@
       <c r="A1112" t="s">
         <v>20</v>
       </c>
-      <c r="B1112" s="13">
+      <c r="B1112" s="12">
         <v>414</v>
       </c>
       <c r="C1112" t="s">
@@ -61457,7 +61457,7 @@
       <c r="A1113" t="s">
         <v>21</v>
       </c>
-      <c r="B1113" s="13">
+      <c r="B1113" s="12">
         <v>504</v>
       </c>
       <c r="C1113" t="s">
@@ -61477,7 +61477,7 @@
       <c r="A1114" t="s">
         <v>22</v>
       </c>
-      <c r="B1114" s="13">
+      <c r="B1114" s="12">
         <v>280</v>
       </c>
       <c r="C1114" t="s">
@@ -61497,7 +61497,7 @@
       <c r="A1115" t="s">
         <v>23</v>
       </c>
-      <c r="B1115" s="13">
+      <c r="B1115" s="12">
         <v>334</v>
       </c>
       <c r="C1115" t="s">
@@ -61517,7 +61517,7 @@
       <c r="A1116" t="s">
         <v>24</v>
       </c>
-      <c r="B1116" s="13">
+      <c r="B1116" s="12">
         <v>568</v>
       </c>
       <c r="C1116" t="s">
@@ -61537,7 +61537,7 @@
       <c r="A1117" t="s">
         <v>25</v>
       </c>
-      <c r="B1117" s="13">
+      <c r="B1117" s="12">
         <v>613</v>
       </c>
       <c r="C1117" t="s">
@@ -61697,7 +61697,7 @@
       <c r="A1125" t="s">
         <v>33</v>
       </c>
-      <c r="B1125" s="13">
+      <c r="B1125" s="12">
         <v>533</v>
       </c>
       <c r="C1125" t="s">
@@ -61717,7 +61717,7 @@
       <c r="A1126" t="s">
         <v>34</v>
       </c>
-      <c r="B1126" s="13">
+      <c r="B1126" s="12">
         <v>361</v>
       </c>
       <c r="C1126" t="s">
@@ -61737,7 +61737,7 @@
       <c r="A1127" t="s">
         <v>35</v>
       </c>
-      <c r="B1127" s="13">
+      <c r="B1127" s="12">
         <v>421</v>
       </c>
       <c r="C1127" t="s">
@@ -61757,7 +61757,7 @@
       <c r="A1128" t="s">
         <v>36</v>
       </c>
-      <c r="B1128" s="13">
+      <c r="B1128" s="12">
         <v>391</v>
       </c>
       <c r="C1128" t="s">
@@ -61777,7 +61777,7 @@
       <c r="A1129" t="s">
         <v>37</v>
       </c>
-      <c r="B1129" s="13">
+      <c r="B1129" s="12">
         <v>96</v>
       </c>
       <c r="C1129" t="s">
